--- a/HARDWARE/Presupuesto.xlsx
+++ b/HARDWARE/Presupuesto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67797BB-045E-4DC5-A00A-3B1FAA4E853A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5FE8A1-691A-48CF-A07D-EB3A8D9074EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t xml:space="preserve">Teensy 4.1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Force Sensitive Resistor </t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>Protoboard</t>
+  </si>
+  <si>
+    <t>ESP32</t>
   </si>
 </sst>
 </file>
@@ -126,9 +126,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,21 +137,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBE3EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -367,14 +397,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -384,39 +408,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCBE3EB"/>
+      <color rgb="FF3399FF"/>
+      <color rgb="FFF1D5F3"/>
+      <color rgb="FFE9BCEA"/>
+      <color rgb="FFD394D6"/>
+      <color rgb="FFD6C5E5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -694,7 +741,7 @@
   <dimension ref="D3:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D7" sqref="D7:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,269 +756,269 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="G3" s="18"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="5" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
     </row>
     <row r="6" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="K7" s="14" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="K7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="24">
+        <v>3</v>
+      </c>
+      <c r="F9" s="25">
+        <v>10</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="K9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="15">
+        <v>25</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="24">
+        <v>3</v>
+      </c>
+      <c r="F11" s="25">
+        <v>27</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="23">
-        <v>50</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="K9" s="4" t="s">
+      <c r="F12" s="15">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25">
+        <v>5</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="K13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>3</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="K14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="3">
         <v>4</v>
       </c>
-      <c r="L9" s="5">
+    </row>
+    <row r="15" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="F15" s="25">
         <v>25</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="K16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="23">
-        <v>10</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23">
-        <v>5</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="K13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23">
-        <v>3</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="K14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23">
-        <v>25</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="4:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="K16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23">
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29">
         <f>SUMPRODUCT(E9:E15,F9:F15)</f>
-        <v>249</v>
-      </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="6"/>
+        <v>229</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="4:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="4:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="13"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="4:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="4:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="K26" s="10"/>
-      <c r="L26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="K27" s="10"/>
-      <c r="L27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K28" s="11"/>
-      <c r="L28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="4:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
